--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>模块名称</t>
   </si>
@@ -24,6 +24,9 @@
     <t>接口名称</t>
   </si>
   <si>
+    <t>请求方式</t>
+  </si>
+  <si>
     <t>用例名称</t>
   </si>
   <si>
@@ -36,14 +39,119 @@
     <t>用例描述</t>
   </si>
   <si>
+    <t>部门管理</t>
+  </si>
+  <si>
+    <t>/web/department/add</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>添加部门01_部门名称不存在</t>
+  </si>
+  <si>
+    <t>{"name": "测试部门B","notes": "部门名称不存在"}</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>添加一个系统中不存在的部门名称</t>
+  </si>
+  <si>
+    <t>添加部门02_部门名称存在</t>
+  </si>
+  <si>
+    <t>{"name": "测试部门","notes": "部门名称存在"}</t>
+  </si>
+  <si>
+    <t>数据不能重复</t>
+  </si>
+  <si>
+    <t>添加一个系统中存在的部门名称</t>
+  </si>
+  <si>
+    <t>/web/department/list</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>部门列表01_正常分页</t>
+  </si>
+  <si>
+    <t>获取列表数据</t>
+  </si>
+  <si>
+    <t>部门列表02</t>
+  </si>
+  <si>
+    <t>/web/department/update</t>
+  </si>
+  <si>
+    <t>编辑部门01_正常修改</t>
+  </si>
+  <si>
+    <t>{"id": 15, "name": "张一部","notes": "将id为15的部门名称修改为：张一部"}</t>
+  </si>
+  <si>
+    <t>编辑已经存在的部门名称</t>
+  </si>
+  <si>
+    <t>编辑部门02_正常修改</t>
+  </si>
+  <si>
+    <t>{"id": 17, "name": "测试部门","notes": "将id为17的部门名称修改为：测试部门"}</t>
+  </si>
+  <si>
+    <t>将部门名称修改为已经存在的部门名称</t>
+  </si>
+  <si>
+    <t>服务分部</t>
+  </si>
+  <si>
+    <t>/web/serviceDivision/add</t>
+  </si>
+  <si>
+    <t>添加服务分部01_服务分部名称不存在</t>
+  </si>
+  <si>
+    <t>{"departmentId": 15,"name": "服务分部A","notes": "在部门id15下添加一个名称不存在的服务分部","serviceArea": [{"id": "510109","value": "四川省成都市高新区"}]}</t>
+  </si>
+  <si>
+    <t>添加一个不存在的服务分部名称</t>
+  </si>
+  <si>
+    <t>添加服务分部02_服务分部名称存在</t>
+  </si>
+  <si>
+    <t>{"departmentId": 15,"name": "服务分部A","notes": "在部门id15下添加一个名称存在的服务分部","serviceArea": [{"id": "510110","value": "四川省成都市高新区"}]}</t>
+  </si>
+  <si>
+    <t>添加一个存在的服务分部名称</t>
+  </si>
+  <si>
+    <t>/web/serviceDivision/list</t>
+  </si>
+  <si>
+    <t>服务分部列表01_正常分页</t>
+  </si>
+  <si>
     <t>人员管理</t>
   </si>
   <si>
     <t>/userlist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>查询提交_</t>
     </r>
     <r>
@@ -51,34 +159,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>03</t>
     </r>
+  </si>
+  <si>
+    <t>根据性别查询</t>
+  </si>
+  <si>
+    <t>{"sex": "m","residenceAddress": "900109","pageNow": 2} # m:男</t>
+  </si>
+  <si>
+    <t>1.选择性别：男   2.点击查询，结果显示正确</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>根据性别查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>查询提交_</t>
     </r>
     <r>
@@ -86,182 +190,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>04</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>{"sex": "m","residenceAddress": "900109","pageNow": 2} # m:男</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"sex": "f","residenceAddress": "900109","pageNow": 3} # f:女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.选择性别：男   2.点击查询，结果显示正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.选择性别：女   2.点击查询，结果显示正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/web/department/add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加部门01_部门名称不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加一个系统中不存在的部门名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加部门02_部门名称存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name": "测试部门","notes": "部门名称存在"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加一个系统中存在的部门名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据不能重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/web/department/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name": "测试部门B","notes": "部门名称不存在"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取列表数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/web/department/update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑已经存在的部门名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑部门01_正常修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑部门02_正常修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id": 15, "name": "张一部","notes": "将id为15的部门名称修改为：张一部"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id": 17, "name": "测试部门","notes": "将id为17的部门名称修改为：测试部门"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将部门名称修改为已经存在的部门名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据不能重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/web/serviceDivision/add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务分部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加服务分部01_服务分部名称不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"departmentId": 15,"name": "服务分部A","notes": "在部门id15下添加一个名称不存在的服务分部","serviceArea": [{"id": "510109","value": "四川省成都市高新区"}]}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加一个不存在的服务分部名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加服务分部02_服务分部名称存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"departmentId": 15,"name": "服务分部A","notes": "在部门id15下添加一个名称存在的服务分部","serviceArea": [{"id": "510110","value": "四川省成都市高新区"}]}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加一个存在的服务分部名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门列表02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门列表01_正常分页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,13 +224,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -288,15 +233,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -304,12 +240,155 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +401,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -359,9 +624,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -375,38 +882,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -697,313 +1251,331 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.5" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="112" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3796296296296" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1296296296296" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.1296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="112" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A2" sqref="$A2:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="40.5" customHeight="1">
+    <row r="2" ht="40.5" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
+      <c r="G2" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="40.5" customHeight="1">
+    <row r="3" ht="40.5" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>